--- a/SAP勉強.xlsx
+++ b/SAP勉強.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qweas\OneDrive\デスクトップ\work\面接\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B079567-C231-405D-ACF3-1C136BB251B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E742C8-029E-4266-BFD9-BF5531433609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学习路线" sheetId="1" r:id="rId1"/>
     <sheet name="基本常识" sheetId="4" r:id="rId2"/>
-    <sheet name="FI知識" sheetId="8" r:id="rId3"/>
-    <sheet name="BAPI" sheetId="6" r:id="rId4"/>
-    <sheet name="汎用モジュール" sheetId="7" r:id="rId5"/>
-    <sheet name="SAPイベント" sheetId="5" r:id="rId6"/>
-    <sheet name="FI" sheetId="2" r:id="rId7"/>
-    <sheet name="SD" sheetId="3" r:id="rId8"/>
+    <sheet name="移送" sheetId="9" r:id="rId3"/>
+    <sheet name="FI知識" sheetId="8" r:id="rId4"/>
+    <sheet name="BAPI" sheetId="6" r:id="rId5"/>
+    <sheet name="汎用モジュール" sheetId="7" r:id="rId6"/>
+    <sheet name="SAPイベント" sheetId="5" r:id="rId7"/>
+    <sheet name="FI" sheetId="2" r:id="rId8"/>
+    <sheet name="SD" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="450">
   <si>
     <t>阶段</t>
   </si>
@@ -16972,9 +16973,6 @@
     <t>2. **BAPI_ACC_GL_POSTING_POST**：一般仕訳伝票を投稿します。</t>
   </si>
   <si>
-    <t>3. **BAPI_ACC_DOCUMENT_REVERSE**：既存の財務文書を取消します。</t>
-  </si>
-  <si>
     <t>4. **BAPI_BANK_CREATE**：新しい銀行マスタデータを作成します。</t>
   </si>
   <si>
@@ -20214,6 +20212,3434 @@
       </rPr>
       <t>款管理。</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>在SAP的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>财务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（FI）模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中，税率的配置通常通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以下事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（T-Code）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. **FV11 / FV12 / FV13**: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>些T-Codes用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>税条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>里你可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>特定的税</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和税</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建或更改税率。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. **OB40**: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个T-Code用于配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>财务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动记账</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其中也包括税相关的自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动记账</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. **FTXP**: 用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>维护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>税代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和与之关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的税率。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建新税代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>税率的主要地方。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. **OBQ1, OBQ2, OBQ3**: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>些T-Codes用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>售和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>购买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>税代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. **OBYZ**: 用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>置与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>算税相关的默</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>税</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>些是一些常用的T-Code，但根据你所用的SAP版本和特定的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>业务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需求，可能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有其他相关的T-Codes。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>税率的任何更改都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>详细</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了解相关税法和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>业务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>流程的情况下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行，并且最好是在咨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了税</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>家和/或SAP FI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顾问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行。更改税率通常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>详</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尽的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，以确保没有不良的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>财务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>影响。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在SAP系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中，当你修正或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建新的ABAP代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（如程序、函数模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等）后，通常需要将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>些更改移送（Transport）到其他系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>量保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的移送是通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SAP的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（CTS，Change and Transport System）来完成的。以下是一些基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>骤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">### </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建或修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. **打开相</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工具**：如SE80（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>航器）、SE38（程序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编辑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器）等。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. **</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行更改**：修改或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建新的ABAP代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. **激活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象**：完成更改后，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>得激活代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>### 将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象添加到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传输请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. **</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选择传输请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求**：当你激活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通常会提示你将其添加到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有或新的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传输请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求（Transport Request）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. **</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传输请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求**：在SE09或SE10事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中，你可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和管理你的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传输请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">### </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传输请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. **</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放任</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**：首先，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传输请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求相关的所有任</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. **</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传输请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求**：然后，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传输请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求本身。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>### 移送到目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. **使用STMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行移送**：一旦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传输请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放，它就会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>列，然后通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STMS事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一步的管理和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. **</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入到目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**：最后，你或者系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将使用STMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入到目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>### 后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>续检</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- **</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中的更改**：确保所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象都已成功移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并且在目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中的功能与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>预</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>期一致。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>注意：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是一个非常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>简</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>化的概述。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的流程可能依</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>于你的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组织</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的特定配置和流程。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是一个需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>慎操作的流程，并且通常需要相关人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（如开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>量保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>证团队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等）的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>协</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. **</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BAPI_ACC_DOCUMENT_REV_POST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**：既存の財務文書を取消します。</t>
+    </r>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -21481,7 +24907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5FE16A-1BA0-4551-8BF8-111939CB373A}">
   <dimension ref="B2:C158"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
@@ -22170,10 +25596,114 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B372044F-69D0-4478-8006-7DA548D3F857}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>448</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DB3758-ED59-47D6-8965-C8F0E7ABD0AC}">
   <dimension ref="B2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -22181,37 +25711,37 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.45">
@@ -22234,12 +25764,12 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -22248,12 +25778,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C0F699-1361-497B-90CA-06BD5235593B}">
   <dimension ref="B1:B152"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -22775,42 +26305,42 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B143" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B144" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B145" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B146" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B147" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B148" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B150" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B152" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -22819,7 +26349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DBBB0A-C006-41B4-A7C3-2B0F7A96A90A}">
   <dimension ref="B2:B32"/>
   <sheetViews>
@@ -22831,92 +26361,92 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -22925,11 +26455,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94BBF6D-CFF3-45F2-9695-92528CEC05D4}">
   <dimension ref="B2:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
@@ -23076,12 +26606,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD5B550-43D2-42A3-918D-EA0A60239ED5}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88"/>
+    <sheetView topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94:B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -23265,6 +26795,46 @@
         <v>93</v>
       </c>
     </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B94" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B96" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B98" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B100" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B102" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B104" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B106" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B108" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23272,12 +26842,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BABFB07-03CA-40CC-909C-3F852C6D80BF}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
